--- a/results/MVSE/acm/MVSE_acm<l10><NCEK>89.99.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l10><NCEK>89.99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1101,6 +1101,152 @@
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>8192</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O10" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_36_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>128</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>82.7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_54_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/MVSE/acm/MVSE_acm<l10><NCEK>89.99.xlsx
+++ b/results/MVSE/acm/MVSE_acm<l10><NCEK>89.99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1115,11 +1115,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>acm</t>
@@ -1134,7 +1130,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1156,27 +1152,27 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="O10" t="n">
-        <v>88.40000000000001</v>
+        <v>88.45</v>
       </c>
       <c r="P10" t="n">
         <v>0.05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.87</v>
+        <v>0.26</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_36_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_18-08_26_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1223,29 +1219,102 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O11" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_36_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>acm</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>4096</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.3</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O12" t="n">
         <v>82.7</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>0.29</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>10.04</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_54_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'acm', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['pap', 'psp'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
